--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_06_beg.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_06_beg.xlsx
@@ -1256,11 +1256,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactors?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactors, you remember me, do you not? Please tell me this is not a nightmare!
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactors?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactors, you remember me, do you not? Please tell me this is not a nightmare!
 </t>
   </si>
   <si>
@@ -1268,15 +1268,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Oh, thank goodness you two remember me! Please, hear me out. When I woke up, it was as though everything that had transpired yesterday had never occurred! Everything was in perfect order!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]The Ink Spirits attacked? Families devastated? None of it ever happened! Look, even Ah Jan's mother is walking around in one piece, hale and whole! Gave me quite a start, I tell you! I thought I'd come upon a ghost in broad daylight—
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]—Right! Have you perchance seen the wandering monk, Saga? Where is she? Is she well?
+    <t xml:space="preserve">[name="Mr. Nothing"]Oh, thank goodness you two remember me! Please, hear me out. When I woke up, it was as though everything that had transpired yesterday had never occurred! Everything was in perfect order!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]The Ink Spirits attacked? Families devastated? None of it ever happened! Look, even Ah Jan's mother is walking around in one piece, hale and whole! Gave me quite a start, I tell you! I thought I'd come upon a ghost in broad daylight—
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]—Right! Have you perchance seen the wandering monk, Saga? Where is she? Is she well?
 </t>
   </si>
   <si>
@@ -1284,7 +1284,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Why, hello, Little Ah Jan~!
+    <t xml:space="preserve">[name="Mr. Nothing"]Why, hello, Little Ah Jan~!
 </t>
   </si>
   <si>
@@ -1292,7 +1292,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My benefactors, look! This is exactly what I meant!
+    <t xml:space="preserve">[name="Mr. Nothing"]My benefactors, look! This is exactly what I meant!
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]H-Haha... Little Ah Jan? You don't know me? You must be playing!
+    <t xml:space="preserve">[name="Mr. Nothing"]H-Haha... Little Ah Jan? You don't know me? You must be playing!
 </t>
   </si>
   <si>
@@ -1332,7 +1332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]N-Never you mind. Please, go on, frolic as you do...
+    <t xml:space="preserve">[name="Mr. Nothing"]N-Never you mind. Please, go on, frolic as you do...
 </t>
   </si>
   <si>
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Why are we the only ones who remember anything...?
+    <t xml:space="preserve">[name="Mr. Nothing"]Why are we the only ones who remember anything...?
 </t>
   </si>
   <si>
@@ -1348,7 +1348,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Well... *Sigh*... That I certainly have no qualms with, but, my benefactor, are you not being a little too... calm?
+    <t xml:space="preserve">[name="Mr. Nothing"]Well... *Sigh*... That I certainly have no qualms with, but, my benefactor, are you not being a little too... calm?
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Master, do you know what's happened?
+    <t xml:space="preserve">[name="Mr. Nothing"]Master, do you know what's happened?
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My apologies, but I'm afraid... you've lost me.
+    <t xml:space="preserve">[name="Mr. Nothing"]My apologies, but I'm afraid... you've lost me.
 </t>
   </si>
   <si>
@@ -1528,7 +1528,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]My goodness. What are we meant to do with all this secrecy?
+    <t xml:space="preserve">[name="Mr. Nothing"]My goodness. What are we meant to do with all this secrecy?
 </t>
   </si>
   <si>
@@ -1616,11 +1616,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]F-Find a place to hide? I'd rather not sit back and watch that all happen again...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]You saw Little Ah Jan crying her eyes out. It was heartbreaking, I tell you...
+    <t xml:space="preserve">[name="Mr. Nothing"]F-Find a place to hide? I'd rather not sit back and watch that all happen again...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]You saw Little Ah Jan crying her eyes out. It was heartbreaking, I tell you...
 </t>
   </si>
   <si>
@@ -1628,7 +1628,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]But...
+    <t xml:space="preserve">[name="Mr. Nothing"]But...
 </t>
   </si>
   <si>
@@ -1668,11 +1668,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]H-Haha, I'll be sure to lend my assistance this time...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Wait! Hold on, my benefactor! You forgot your crossbow!
+    <t xml:space="preserve">[name="Mr. Nothing"]H-Haha, I'll be sure to lend my assistance this time...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Mr. Nothing"]Wait! Hold on, my benefactor! You forgot your crossbow!
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]흠……
+    <t xml:space="preserve">[name="라바"]음……
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라바"]오?
+    <t xml:space="preserve">[name="라바"]어?
 </t>
   </si>
   <si>
